--- a/Amiga-Stereo-Digitizer/BOM.xlsx
+++ b/Amiga-Stereo-Digitizer/BOM.xlsx
@@ -15,7 +15,7 @@
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BOM!$A$1:$F$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BOM!$A$1:$G$22</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -153,9 +153,6 @@
     <t>1.2k</t>
   </si>
   <si>
-    <t>C8</t>
-  </si>
-  <si>
     <t>10nF</t>
   </si>
   <si>
@@ -174,9 +171,6 @@
     <t>R12</t>
   </si>
   <si>
-    <t>47nF</t>
-  </si>
-  <si>
     <t>T93YA104KT20</t>
   </si>
   <si>
@@ -219,12 +213,6 @@
     <t>Manufacturer Name</t>
   </si>
   <si>
-    <t>C1, C3</t>
-  </si>
-  <si>
-    <t>C2, C4, C7</t>
-  </si>
-  <si>
     <t>D1, D2</t>
   </si>
   <si>
@@ -244,6 +232,18 @@
   </si>
   <si>
     <t>Also Purchase PLCC28 socket (no pegs)</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>C2, C4</t>
+  </si>
+  <si>
+    <t>22uF</t>
+  </si>
+  <si>
+    <t>C1, C3, C8</t>
   </si>
 </sst>
 </file>
@@ -1085,8 +1085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1114,21 +1114,21 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>39</v>
@@ -1140,10 +1140,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>39</v>
@@ -1185,10 +1185,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>39</v>
@@ -1200,7 +1200,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>30</v>
@@ -1246,7 +1246,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>6</v>
@@ -1258,7 +1258,7 @@
         <v>8</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1320,52 +1320,52 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="D14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>29</v>
@@ -1377,10 +1377,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>29</v>
@@ -1392,10 +1392,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
+      </c>
+      <c r="B17" s="4">
+        <v>470</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>29</v>
@@ -1407,10 +1407,10 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="4">
-        <v>470</v>
+        <v>41</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>29</v>
@@ -1422,10 +1422,10 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>29</v>
@@ -1437,10 +1437,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>29</v>
@@ -1467,26 +1467,31 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="E22" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F22" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G22" s="2"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G22">
+    <sortState ref="A2:G22">
+      <sortCondition ref="A1:A22"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/Amiga-Stereo-Digitizer/BOM.xlsx
+++ b/Amiga-Stereo-Digitizer/BOM.xlsx
@@ -5,28 +5,28 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.1.100\Personal\Charlie\~Retro\~PCB's and Kits\Amiga Stereo Digitizer\Amiga-Stereo-Digitizer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.1.100\Personal\Charlie\~Retro\~PCB's and Kits\Amiga Stereo Digitizer\Amiga-Stereo-Digitizer - rev2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28290" windowHeight="20235"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25845" windowHeight="16200"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BOM!$A$1:$G$22</definedName>
-  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="72">
   <si>
     <t>Reference</t>
   </si>
   <si>
+    <t xml:space="preserve"> Quantity</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Value</t>
   </si>
   <si>
@@ -36,22 +36,106 @@
     <t xml:space="preserve"> Description</t>
   </si>
   <si>
-    <t>IC2</t>
+    <t xml:space="preserve"> Manufacturer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C2 C4 </t>
+  </si>
+  <si>
+    <t>22uF</t>
+  </si>
+  <si>
+    <t>Capacitor_SMD:C_0805_2012Metric_Pad1.15x1.40mm_HandSolder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C5 </t>
+  </si>
+  <si>
+    <t>0.1uF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C6 </t>
+  </si>
+  <si>
+    <t>100nF</t>
+  </si>
+  <si>
+    <t>Capacitor_SMD:C_0805_2012Metric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C7 </t>
+  </si>
+  <si>
+    <t>1nF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C8 C1 C3 </t>
+  </si>
+  <si>
+    <t>10nF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D1 D2 </t>
+  </si>
+  <si>
+    <t>1N4148</t>
+  </si>
+  <si>
+    <t>SamacSys_Parts:SODFL2512X95N</t>
+  </si>
+  <si>
+    <t>Panjit</t>
+  </si>
+  <si>
+    <t>1N4148WS_R1_00001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IC1 </t>
+  </si>
+  <si>
+    <t>LM555CM</t>
+  </si>
+  <si>
+    <t>SOIC127P600X175-8N</t>
+  </si>
+  <si>
+    <t>LM555 Timer</t>
+  </si>
+  <si>
+    <t>Texas Instruments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IC2 </t>
   </si>
   <si>
     <t>ADC0809CCV_NOPB</t>
   </si>
   <si>
+    <t>Package_LCC:PLCC-28_SMD-Socket</t>
+  </si>
+  <si>
     <t>8-bit Microprocessor Compatible A/D Converters With 8-Channel Multiplexer</t>
   </si>
   <si>
-    <t>Texas Instruments</t>
-  </si>
-  <si>
     <t>ADC0809CCV/NOPB</t>
   </si>
   <si>
-    <t>J0</t>
+    <t xml:space="preserve">IC4 </t>
+  </si>
+  <si>
+    <t>MC74HC14ADTR2G</t>
+  </si>
+  <si>
+    <t>SOP65P640X120-14N</t>
+  </si>
+  <si>
+    <t>Hex Inverter with Schmitt Trigger Input</t>
+  </si>
+  <si>
+    <t>onsemi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J0 </t>
   </si>
   <si>
     <t>L717SDB25P1ACH4F</t>
@@ -63,34 +147,7 @@
     <t>Amphenol</t>
   </si>
   <si>
-    <t>IC1</t>
-  </si>
-  <si>
-    <t>LM555CM</t>
-  </si>
-  <si>
-    <t>SOIC127P600X175-8N</t>
-  </si>
-  <si>
-    <t>LM555 Timer</t>
-  </si>
-  <si>
-    <t>IC4</t>
-  </si>
-  <si>
-    <t>MC74HC14ADTR2G</t>
-  </si>
-  <si>
-    <t>SOP65P640X120-14N</t>
-  </si>
-  <si>
-    <t>Hex Inverter with Schmitt Trigger Input</t>
-  </si>
-  <si>
-    <t>onsemi</t>
-  </si>
-  <si>
-    <t>J1</t>
+    <t xml:space="preserve">J1 </t>
   </si>
   <si>
     <t>OS-Select</t>
@@ -99,34 +156,61 @@
     <t>Connector_PinHeader_2.54mm:PinHeader_1x03_P2.54mm_Vertical</t>
   </si>
   <si>
-    <t>C6</t>
-  </si>
-  <si>
-    <t>100nF</t>
-  </si>
-  <si>
-    <t>Capacitor_SMD:CP_Elec_4x5.8</t>
+    <t xml:space="preserve">J2 </t>
+  </si>
+  <si>
+    <t>RCJ-043</t>
+  </si>
+  <si>
+    <t>RCJ043</t>
+  </si>
+  <si>
+    <t>RCA Phono Connectors RCA Connectors</t>
+  </si>
+  <si>
+    <t>CUI Inc.</t>
+  </si>
+  <si>
+    <t>RCJ-042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J3 </t>
+  </si>
+  <si>
+    <t>RCJ042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R15 </t>
+  </si>
+  <si>
+    <t>Resistor_SMD:R_0805_2012Metric_Pad1.15x1.40mm_HandSolder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R16 </t>
+  </si>
+  <si>
+    <t>1.2k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R17 R3 R4 R6 R7 R13 R14 R10 R11 </t>
   </si>
   <si>
     <t>100k</t>
   </si>
   <si>
-    <t>Resistor_SMD:R_0805_2012Metric_Pad1.15x1.40mm_HandSolder</t>
-  </si>
-  <si>
-    <t>1N4148</t>
-  </si>
-  <si>
-    <t>SamacSys_Parts:SODFL2512X95N</t>
-  </si>
-  <si>
-    <t>Panjit</t>
-  </si>
-  <si>
-    <t>1N4148WS_R1_00001</t>
-  </si>
-  <si>
-    <t>U3</t>
+    <t xml:space="preserve">R2 R9 R1 R8 </t>
+  </si>
+  <si>
+    <t>1k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R5 R12 </t>
+  </si>
+  <si>
+    <t>47k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U3 </t>
   </si>
   <si>
     <t>LM324DR</t>
@@ -135,40 +219,7 @@
     <t>SamacSys_Parts:SOIC127P600X175-14N</t>
   </si>
   <si>
-    <t>C5</t>
-  </si>
-  <si>
-    <t>0.1uF</t>
-  </si>
-  <si>
-    <t>Capacitor_SMD:C_0805_2012Metric_Pad1.15x1.40mm_HandSolder</t>
-  </si>
-  <si>
-    <t>R15</t>
-  </si>
-  <si>
-    <t>R16</t>
-  </si>
-  <si>
-    <t>1.2k</t>
-  </si>
-  <si>
-    <t>10nF</t>
-  </si>
-  <si>
-    <t>1k</t>
-  </si>
-  <si>
-    <t>1uF</t>
-  </si>
-  <si>
-    <t>R5</t>
-  </si>
-  <si>
-    <t>47k</t>
-  </si>
-  <si>
-    <t>R12</t>
+    <t xml:space="preserve">VR2 VR1 </t>
   </si>
   <si>
     <t>T93YA104KT20</t>
@@ -183,67 +234,7 @@
     <t>Vishay</t>
   </si>
   <si>
-    <t>J2</t>
-  </si>
-  <si>
-    <t>RCJ-043</t>
-  </si>
-  <si>
-    <t>RCJ043</t>
-  </si>
-  <si>
-    <t>RCA Phono Connectors RCA Connectors</t>
-  </si>
-  <si>
-    <t>CUI Inc.</t>
-  </si>
-  <si>
-    <t>RCJ-042</t>
-  </si>
-  <si>
-    <t>J3</t>
-  </si>
-  <si>
-    <t>RCJ042</t>
-  </si>
-  <si>
     <t>Part Number</t>
-  </si>
-  <si>
-    <t>Manufacturer Name</t>
-  </si>
-  <si>
-    <t>D1, D2</t>
-  </si>
-  <si>
-    <t>VR1, VR2</t>
-  </si>
-  <si>
-    <t>R1, R2, R8, R9</t>
-  </si>
-  <si>
-    <t>R3, R4, R6, R7, R10, R11, R13, R14, R17</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>Package_LCC:PLCC-28_SMD-Socket</t>
-  </si>
-  <si>
-    <t>Also Purchase PLCC28 socket (no pegs)</t>
-  </si>
-  <si>
-    <t>C7</t>
-  </si>
-  <si>
-    <t>C2, C4</t>
-  </si>
-  <si>
-    <t>22uF</t>
-  </si>
-  <si>
-    <t>C1, C3, C8</t>
   </si>
 </sst>
 </file>
@@ -574,7 +565,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -754,14 +745,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1083,415 +1070,432 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="62" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="69.42578125" customWidth="1"/>
-    <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.5703125" customWidth="1"/>
+    <col min="5" max="5" width="25.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1">
+        <v>470</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="1">
+        <v>9</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="1">
+        <v>4</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="D19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="1">
+        <v>2</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="D21" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="4">
-        <v>470</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G22" s="2"/>
+      <c r="G21" s="1" t="s">
+        <v>67</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G22">
-    <sortState ref="A2:G22">
-      <sortCondition ref="A1:A22"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
